--- a/UseCase/Descrição UseCases/Registar.xlsx
+++ b/UseCase/Descrição UseCases/Registar.xlsx
@@ -60,14 +60,6 @@
     <t>Cliente registado</t>
   </si>
   <si>
-    <t>Cenário Alternativo 
-(Cliente já registado)</t>
-  </si>
-  <si>
-    <t>Exceção 
-(Dados inválidos)</t>
-  </si>
-  <si>
     <t>1. Apresenta menu inicial</t>
   </si>
   <si>
@@ -86,16 +78,26 @@
     <t>5.1. Informa cliente que já está registado</t>
   </si>
   <si>
-    <t>5.2. Cliente sai do ecrã de registo</t>
-  </si>
-  <si>
     <t>5.1.1. Informa cliente que os dados são inválidos</t>
   </si>
   <si>
-    <t>5.1.2. Cliente sai do sistema</t>
-  </si>
-  <si>
     <t>6. Informa cliente de que foi registado</t>
+  </si>
+  <si>
+    <t>Regressa a 4</t>
+  </si>
+  <si>
+    <t>5.2. Sai do ecrã de registo</t>
+  </si>
+  <si>
+    <t>Alternativa 1
+[Cliente já registado]
+(Passo 5)</t>
+  </si>
+  <si>
+    <t>Alternativa 2
+[Dados inválidos]
+(Passo 5)</t>
   </si>
 </sst>
 </file>
@@ -350,6 +352,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -382,12 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,40 +724,40 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -766,91 +768,91 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25" t="s">
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
-        <v>11</v>
+      <c r="B14" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>12</v>
+      <c r="B17" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
     </row>
